--- a/data/trans_dic/P55$nadie-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P55$nadie-Clase-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.09403117889521274</v>
+        <v>0.09403117889521276</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
       <c r="L5" s="5" t="inlineStr"/>
       <c r="M5" s="5" t="inlineStr"/>
       <c r="N5" s="5" t="n">
-        <v>0.02510051669074961</v>
+        <v>0.02378400479919815</v>
       </c>
     </row>
     <row r="6">
@@ -741,23 +741,23 @@
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>0.3617833248056158</v>
+        <v>0.3147831362254118</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2899845513059303</v>
+        <v>0.3555147587532826</v>
       </c>
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="inlineStr"/>
       <c r="J6" s="5" t="n">
-        <v>0.2688646896356887</v>
+        <v>0.245056891840848</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.168075012084883</v>
+        <v>0.2108993032191876</v>
       </c>
       <c r="L6" s="5" t="inlineStr"/>
       <c r="M6" s="5" t="inlineStr"/>
       <c r="N6" s="5" t="n">
-        <v>0.2253126846987486</v>
+        <v>0.2149691843097181</v>
       </c>
     </row>
     <row r="7">
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.08471803759672639</v>
+        <v>0.08471803759672636</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>0.06332496469393979</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.1188524472145964</v>
+        <v>0.1188524472145965</v>
       </c>
     </row>
     <row r="8">
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.04025347027047664</v>
+        <v>0.04052471194919734</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>0</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05415955461504401</v>
+        <v>0.05401118969980272</v>
       </c>
     </row>
     <row r="9">
@@ -850,30 +850,30 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5673117344615001</v>
+        <v>0.5465326126293191</v>
       </c>
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="n">
-        <v>0.2663662772930024</v>
+        <v>0.2331759165651015</v>
       </c>
       <c r="G9" s="5" t="inlineStr"/>
       <c r="H9" s="5" t="inlineStr"/>
       <c r="I9" s="5" t="n">
-        <v>0.6583721798037588</v>
+        <v>0.6710251603448252</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3238825692460248</v>
+        <v>0.3608573281489296</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4608315423377208</v>
+        <v>0.4675236180875457</v>
       </c>
       <c r="L9" s="5" t="inlineStr"/>
       <c r="M9" s="5" t="n">
-        <v>0.3057247973159504</v>
+        <v>0.3185265267243577</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.235789236887111</v>
+        <v>0.243861735682164</v>
       </c>
     </row>
     <row r="10">
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04136856918639137</v>
+        <v>0.04049229368233061</v>
       </c>
       <c r="E11" s="5" t="inlineStr"/>
       <c r="F11" s="5" t="n">
@@ -946,17 +946,17 @@
       </c>
       <c r="H11" s="5" t="inlineStr"/>
       <c r="I11" s="5" t="n">
-        <v>0.05828869336309818</v>
+        <v>0.05985885034666616</v>
       </c>
       <c r="J11" s="5" t="inlineStr"/>
       <c r="K11" s="5" t="n">
-        <v>0.03640233846755766</v>
+        <v>0.03541987412312022</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02329757418230743</v>
+        <v>0.02426731232042632</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03021707495298596</v>
+        <v>0.02963856124502515</v>
       </c>
       <c r="N11" s="5" t="n">
         <v>0</v>
@@ -970,34 +970,34 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3648523512814707</v>
+        <v>0.3222696428195864</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4698638085624605</v>
+        <v>0.4330722435163823</v>
       </c>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="n">
-        <v>0.1295644494919216</v>
+        <v>0.112672843695045</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5671371235663218</v>
+        <v>0.5641428640902898</v>
       </c>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="n">
-        <v>0.593109447246455</v>
+        <v>0.5541387572376452</v>
       </c>
       <c r="J12" s="5" t="inlineStr"/>
       <c r="K12" s="5" t="n">
-        <v>0.3151442304771914</v>
+        <v>0.3181455168312928</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2803486361951357</v>
+        <v>0.2719078152990647</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3409786512525817</v>
+        <v>0.3201865234106608</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.06834511652707603</v>
+        <v>0.08047245417050146</v>
       </c>
     </row>
     <row r="13">
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.02929103952930717</v>
+        <v>0.02929103952930718</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.03723164499843615</v>
@@ -1033,7 +1033,7 @@
         <v>0.0939256743000027</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.02814683231596093</v>
+        <v>0.02814683231596092</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.03833848145854571</v>
@@ -1056,14 +1056,14 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01181707339601214</v>
+        <v>0.01184149297477059</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="5" t="inlineStr"/>
       <c r="F14" s="5" t="n">
-        <v>0.007933660218328982</v>
+        <v>0.008019652362845757</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
@@ -1072,22 +1072,22 @@
         <v>0</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02910704706866394</v>
+        <v>0.02950670792391384</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.009924098571388458</v>
+        <v>0.01004828880744872</v>
       </c>
       <c r="L14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01377200146872509</v>
+        <v>0.01332890821125371</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01032443177459743</v>
+        <v>0.01004109882183494</v>
       </c>
     </row>
     <row r="15">
@@ -1098,38 +1098,38 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1195542877312564</v>
+        <v>0.1011017138243147</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07200333097910802</v>
+        <v>0.07759487615818918</v>
       </c>
       <c r="E15" s="5" t="inlineStr"/>
       <c r="F15" s="5" t="n">
-        <v>0.08912683365760041</v>
+        <v>0.08885869499985308</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1866145280438269</v>
+        <v>0.1565698545558615</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2661179571214422</v>
+        <v>0.2501140568059737</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2515120089637509</v>
+        <v>0.2629214561929732</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.09820977538438372</v>
+        <v>0.08687093007879014</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.08771791831588695</v>
+        <v>0.08873768711071919</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.08149335097450525</v>
+        <v>0.07890017849250328</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1171307992946372</v>
+        <v>0.109445346359137</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.06611165996641588</v>
+        <v>0.0603840621280481</v>
       </c>
     </row>
     <row r="16">
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.03477181187637424</v>
+        <v>0.03955479583164134</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>0</v>
@@ -1204,22 +1204,22 @@
         <v>0</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.02496851598185532</v>
+        <v>0.02210920776407593</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02818583718483044</v>
+        <v>0.02873006778761529</v>
       </c>
       <c r="K17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.002761528231229974</v>
+        <v>0.008225787366516021</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.02594950520637634</v>
+        <v>0.02487932253155756</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.03976850679920232</v>
+        <v>0.04110228649126271</v>
       </c>
     </row>
     <row r="18">
@@ -1231,37 +1231,37 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.1379243952144165</v>
+        <v>0.1686299131823603</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1295633001248921</v>
+        <v>0.1437755152000304</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2081422930417571</v>
+        <v>0.2042929273411306</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1949593846620757</v>
+        <v>0.1927095271350753</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.08409903816503614</v>
+        <v>0.09113957784066187</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2256288376161483</v>
+        <v>0.1993700218847913</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.0974530902318155</v>
+        <v>0.1032874109617768</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1344038077532115</v>
+        <v>0.153156723522636</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.07214645285915736</v>
+        <v>0.07366417305819879</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.131247273698299</v>
+        <v>0.139780483237313</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1032622991798653</v>
+        <v>0.1079593592235641</v>
       </c>
     </row>
     <row r="19">
@@ -1320,28 +1320,28 @@
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="inlineStr"/>
       <c r="G20" s="5" t="n">
-        <v>0.03571470834269971</v>
+        <v>0.02867377496403935</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.006648124421867479</v>
+        <v>0.00652789948093826</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.03025606374333431</v>
+        <v>0.03147441179948206</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.01670488352000695</v>
+        <v>0.01588991389173211</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.0298370340468967</v>
+        <v>0.03224804596093304</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.006648124421867479</v>
+        <v>0.00652789948093826</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.03025606374333431</v>
+        <v>0.03147441179948206</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.016118833587011</v>
+        <v>0.01662031023702969</v>
       </c>
     </row>
     <row r="21">
@@ -1356,28 +1356,28 @@
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="inlineStr"/>
       <c r="G21" s="5" t="n">
-        <v>0.1240115496670779</v>
+        <v>0.1163009109493836</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.0604774124518555</v>
+        <v>0.05843532484888252</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1175153811881186</v>
+        <v>0.1209970427149795</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.0583979918210037</v>
+        <v>0.05799966100967532</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1159519123787918</v>
+        <v>0.126013451168901</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.0604774124518555</v>
+        <v>0.05843532484888252</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1175153811881186</v>
+        <v>0.1209970427149795</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.05860897014589384</v>
+        <v>0.05729032321565698</v>
       </c>
     </row>
     <row r="22">
@@ -1401,7 +1401,7 @@
         <v>0.0152552416900882</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.05463779843234001</v>
+        <v>0.05463779843233999</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.06587626594301266</v>
@@ -1425,7 +1425,7 @@
         <v>0.06226669644313272</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.04791143960366025</v>
+        <v>0.04791143960366024</v>
       </c>
     </row>
     <row r="23">
@@ -1436,40 +1436,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.0199091249666376</v>
+        <v>0.0211734986049134</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01377389946623971</v>
+        <v>0.01358335476576408</v>
       </c>
       <c r="E23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.03062575647799136</v>
+        <v>0.03275558963746778</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.03984417408726114</v>
+        <v>0.03668331944547178</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.008159772220673777</v>
+        <v>0.007838259974920452</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.0515598848619447</v>
+        <v>0.05416442824160436</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.03145692930807416</v>
+        <v>0.03124080591096353</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.0370109929040582</v>
+        <v>0.03952450256551555</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.01507107547359262</v>
+        <v>0.01463028714139616</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.03988949629877023</v>
+        <v>0.03933407505405656</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.03522007894092064</v>
+        <v>0.03571474376214174</v>
       </c>
     </row>
     <row r="24">
@@ -1480,40 +1480,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1050816514254934</v>
+        <v>0.1131137808070915</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1021107499601447</v>
+        <v>0.1078470775490848</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.05011038817406768</v>
+        <v>0.04913859309142663</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.09113482176503843</v>
+        <v>0.0923029211944134</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1081398890618986</v>
+        <v>0.1018783828858286</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.04520319599451189</v>
+        <v>0.04561024777145335</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1323887835293043</v>
+        <v>0.1262896914969514</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.06460144635366814</v>
+        <v>0.06469842922239172</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.0899787508579853</v>
+        <v>0.09151907305314388</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.05352180305863841</v>
+        <v>0.05360403252616031</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.09250831145989986</v>
+        <v>0.0954229552813695</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.06399652536547699</v>
+        <v>0.06478505436980217</v>
       </c>
     </row>
     <row r="25">
@@ -1805,7 +1805,7 @@
       <c r="L6" s="6" t="inlineStr"/>
       <c r="M6" s="6" t="inlineStr"/>
       <c r="N6" s="6" t="n">
-        <v>690</v>
+        <v>654</v>
       </c>
     </row>
     <row r="7">
@@ -1819,23 +1819,23 @@
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="n">
-        <v>4523</v>
+        <v>3935</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>3876</v>
+        <v>4752</v>
       </c>
       <c r="H7" s="6" t="inlineStr"/>
       <c r="I7" s="6" t="inlineStr"/>
       <c r="J7" s="6" t="n">
-        <v>4031</v>
+        <v>3674</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>3951</v>
+        <v>4958</v>
       </c>
       <c r="L7" s="6" t="inlineStr"/>
       <c r="M7" s="6" t="inlineStr"/>
       <c r="N7" s="6" t="n">
-        <v>6194</v>
+        <v>5910</v>
       </c>
     </row>
     <row r="8">
@@ -1951,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="K10" s="6" t="n">
         <v>0</v>
@@ -1961,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1857</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="11">
@@ -1972,30 +1972,30 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>6126</v>
+        <v>5901</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>4997</v>
+        <v>4374</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="n">
-        <v>4418</v>
+        <v>4503</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>5030</v>
+        <v>5604</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>7442</v>
+        <v>7551</v>
       </c>
       <c r="L11" s="6" t="inlineStr"/>
       <c r="M11" s="6" t="n">
-        <v>5339</v>
+        <v>5563</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>8085</v>
+        <v>8362</v>
       </c>
     </row>
     <row r="12">
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1011</v>
+        <v>989</v>
       </c>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
@@ -2112,17 +2112,17 @@
       </c>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>950</v>
+        <v>976</v>
       </c>
       <c r="J14" s="6" t="inlineStr"/>
       <c r="K14" s="6" t="n">
-        <v>959</v>
+        <v>933</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>1012</v>
+        <v>1054</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>991</v>
+        <v>972</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0</v>
@@ -2136,34 +2136,34 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6574</v>
+        <v>5807</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>11482</v>
+        <v>10583</v>
       </c>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>2953</v>
+        <v>2568</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4719</v>
+        <v>4694</v>
       </c>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>9668</v>
+        <v>9032</v>
       </c>
       <c r="J15" s="6" t="inlineStr"/>
       <c r="K15" s="6" t="n">
-        <v>8300</v>
+        <v>8379</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>12178</v>
+        <v>11811</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>11178</v>
+        <v>10497</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>3189</v>
+        <v>3755</v>
       </c>
     </row>
     <row r="16">
@@ -2266,14 +2266,14 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="D18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="6" t="inlineStr"/>
       <c r="F18" s="6" t="n">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
@@ -2282,22 +2282,22 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>955</v>
+        <v>969</v>
       </c>
       <c r="J18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>933</v>
+        <v>945</v>
       </c>
       <c r="L18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1001</v>
+        <v>969</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1228</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="19">
@@ -2308,38 +2308,38 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>8444</v>
+        <v>7140</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>4881</v>
+        <v>5260</v>
       </c>
       <c r="E19" s="6" t="inlineStr"/>
       <c r="F19" s="6" t="n">
-        <v>6875</v>
+        <v>6854</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>4371</v>
+        <v>3667</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>5545</v>
+        <v>5212</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>8256</v>
+        <v>8631</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>4109</v>
+        <v>3635</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>8250</v>
+        <v>8346</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>7222</v>
+        <v>6993</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>8514</v>
+        <v>7956</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>7866</v>
+        <v>7184</v>
       </c>
     </row>
     <row r="20">
@@ -2449,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1143</v>
+        <v>1301</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0</v>
@@ -2458,22 +2458,22 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1324</v>
+        <v>1172</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>2839</v>
+        <v>2894</v>
       </c>
       <c r="K22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>330</v>
+        <v>984</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>2604</v>
+        <v>2497</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>5314</v>
+        <v>5492</v>
       </c>
     </row>
     <row r="23">
@@ -2485,37 +2485,37 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>4970</v>
+        <v>6076</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>6132</v>
+        <v>6805</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>6844</v>
+        <v>6717</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>7099</v>
+        <v>7017</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>7027</v>
+        <v>7616</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>11963</v>
+        <v>10571</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>9817</v>
+        <v>10405</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>7055</v>
+        <v>8040</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>8628</v>
+        <v>8809</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>13171</v>
+        <v>14027</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>13798</v>
+        <v>14425</v>
       </c>
     </row>
     <row r="24">
@@ -2618,28 +2618,28 @@
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="n">
-        <v>5145</v>
+        <v>4130</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>951</v>
+        <v>934</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>4456</v>
+        <v>4635</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>2541</v>
+        <v>2417</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>4325</v>
+        <v>4675</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>951</v>
+        <v>934</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>4456</v>
+        <v>4635</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>2487</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="27">
@@ -2654,28 +2654,28 @@
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="n">
-        <v>17864</v>
+        <v>16753</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>8654</v>
+        <v>8362</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>17306</v>
+        <v>17818</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>8882</v>
+        <v>8821</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>16809</v>
+        <v>18267</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>8654</v>
+        <v>8362</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>17306</v>
+        <v>17818</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>9043</v>
+        <v>8840</v>
       </c>
     </row>
     <row r="28">
@@ -2778,40 +2778,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2520</v>
+        <v>2680</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>2013</v>
+        <v>1985</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>5092</v>
+        <v>5446</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>9201</v>
+        <v>8471</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>2273</v>
+        <v>2183</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>13620</v>
+        <v>14308</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>10980</v>
+        <v>10905</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>13231</v>
+        <v>14130</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>6401</v>
+        <v>6214</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>15382</v>
+        <v>15168</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>18150</v>
+        <v>18405</v>
       </c>
     </row>
     <row r="31">
@@ -2822,40 +2822,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>13301</v>
+        <v>14318</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>14925</v>
+        <v>15764</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>6086</v>
+        <v>5968</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>15153</v>
+        <v>15348</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>24972</v>
+        <v>23526</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>12592</v>
+        <v>12705</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>34972</v>
+        <v>33361</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>22550</v>
+        <v>22584</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>32167</v>
+        <v>32718</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>22732</v>
+        <v>22767</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>35673</v>
+        <v>36797</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>32980</v>
+        <v>33386</v>
       </c>
     </row>
     <row r="32">
